--- a/biology/Médecine/Honorine_Lecours/Honorine_Lecours.xlsx
+++ b/biology/Médecine/Honorine_Lecours/Honorine_Lecours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Honorine Lecours, dite Sœur Marie-Auxiliatrice, née le 2 avril 1860 à Lévis et morte le 6 janvier 1935 à Québec, est une religieuse québécoise.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de Charles Lecours et Ursule Bégin.
-Elle entre en religion le 24 janvier 1877 et fait profession religieuse le 5 décembre 1878[1]. Elle devient la supérieure des Sœurs de la charité de Québec[Quand ?].
+Elle entre en religion le 24 janvier 1877 et fait profession religieuse le 5 décembre 1878. Elle devient la supérieure des Sœurs de la charité de Québec[Quand ?].
 Au lendemain de la Commission royale de la tuberculose, la lutte à cette maladie s'organise à Québec. Le médecin Arthur Rousseau fait appel aux Sœurs. 
-En 1915, en pleine crise de la tuberculose, elle est nommée directrice du nouvel Hôpital civique de Québec[2].
+En 1915, en pleine crise de la tuberculose, elle est nommée directrice du nouvel Hôpital civique de Québec.
 Elle décède à la Maison Généralice en 1935.
 </t>
         </is>
